--- a/Feature-Analysis/Resize Feature/s_24_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_24_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.56599537039</v>
+        <v>738157.56599537039</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.56665509264</v>
+        <v>738157.56665509264</v>
       </c>
       <c r="C3" s="0">
         <v>57.000002637505531</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.56699074071</v>
+        <v>738157.56699074071</v>
       </c>
       <c r="C4" s="0">
         <v>85.999996215105057</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.56734953704</v>
+        <v>738157.56734953704</v>
       </c>
       <c r="C5" s="0">
         <v>116.99999906122684</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.56770833337</v>
+        <v>738157.56770833337</v>
       </c>
       <c r="C6" s="0">
         <v>148.00000190734863</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.56804398145</v>
+        <v>738157.56804398145</v>
       </c>
       <c r="C7" s="0">
         <v>176.99999548494816</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.56839120365</v>
+        <v>738157.56839120365</v>
       </c>
       <c r="C8" s="0">
         <v>206.99999369680882</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.56873842597</v>
+        <v>738157.56873842597</v>
       </c>
       <c r="C9" s="0">
         <v>237.00000196695328</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.56908564817</v>
+        <v>738157.56908564817</v>
       </c>
       <c r="C10" s="0">
         <v>267.00000017881393</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.5694444445</v>
+        <v>738157.5694444445</v>
       </c>
       <c r="C11" s="0">
         <v>298.00000302493572</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.56978009257</v>
+        <v>738157.56978009257</v>
       </c>
       <c r="C12" s="0">
         <v>326.99999660253525</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.57010416663</v>
+        <v>738157.57010416663</v>
       </c>
       <c r="C13" s="0">
         <v>354.99999560415745</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.57045138883</v>
+        <v>738157.57045138883</v>
       </c>
       <c r="C14" s="0">
         <v>384.9999938160181</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.57081018516</v>
+        <v>738157.57081018516</v>
       </c>
       <c r="C15" s="0">
         <v>415.99999666213989</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.57115740736</v>
+        <v>738157.57115740736</v>
       </c>
       <c r="C16" s="0">
         <v>445.99999487400055</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.57151620369</v>
+        <v>738157.57151620369</v>
       </c>
       <c r="C17" s="0">
         <v>476.99999772012234</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.57187500002</v>
+        <v>738157.57187500002</v>
       </c>
       <c r="C18" s="0">
         <v>508.00000056624413</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.5722106481</v>
+        <v>738157.5722106481</v>
       </c>
       <c r="C19" s="0">
         <v>536.99999414384365</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.57254629629</v>
+        <v>738157.57254629629</v>
       </c>
       <c r="C20" s="0">
         <v>565.99999777972698</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.57320601854</v>
+        <v>738157.57320601854</v>
       </c>
       <c r="C21" s="0">
         <v>623.00000041723251</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.57358796301</v>
+        <v>738157.57358796301</v>
       </c>
       <c r="C22" s="0">
         <v>656.00000247359276</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.57392361108</v>
+        <v>738157.57392361108</v>
       </c>
       <c r="C23" s="0">
         <v>684.99999605119228</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.57427083328</v>
+        <v>738157.57427083328</v>
       </c>
       <c r="C24" s="0">
         <v>714.99999426305294</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.57460648147</v>
+        <v>738157.57460648147</v>
       </c>
       <c r="C25" s="0">
         <v>743.99999789893627</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.5749652778</v>
+        <v>738157.5749652778</v>
       </c>
       <c r="C26" s="0">
         <v>775.00000074505806</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.5753125</v>
+        <v>738157.5753125</v>
       </c>
       <c r="C27" s="0">
         <v>804.99999895691872</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.57564814819</v>
+        <v>738157.57564814819</v>
       </c>
       <c r="C28" s="0">
         <v>834.00000259280205</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.57601851854</v>
+        <v>738157.57601851854</v>
       </c>
       <c r="C29" s="0">
         <v>866.00000001490116</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.57636574074</v>
+        <v>738157.57636574074</v>
       </c>
       <c r="C30" s="0">
         <v>895.99999822676182</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.57671296294</v>
+        <v>738157.57671296294</v>
       </c>
       <c r="C31" s="0">
         <v>925.99999643862247</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.57706018514</v>
+        <v>738157.57706018514</v>
       </c>
       <c r="C32" s="0">
         <v>955.99999465048313</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.57740740746</v>
+        <v>738157.57740740746</v>
       </c>
       <c r="C33" s="0">
         <v>986.00000292062759</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.57775462966</v>
+        <v>738157.57775462966</v>
       </c>
       <c r="C34" s="0">
         <v>1016.0000011324883</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.57807870372</v>
+        <v>738157.57807870372</v>
       </c>
       <c r="C35" s="0">
         <v>1044.0000001341105</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.57843750005</v>
+        <v>738157.57843750005</v>
       </c>
       <c r="C36" s="0">
         <v>1075.0000029802322</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.57877314813</v>
+        <v>738157.57877314813</v>
       </c>
       <c r="C37" s="0">
         <v>1103.9999965578318</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.579212963</v>
+        <v>738157.579212963</v>
       </c>
       <c r="C38" s="0">
         <v>1142.0000016689301</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.57946759264</v>
+        <v>738157.57946759264</v>
       </c>
       <c r="C39" s="0">
         <v>1164.0000030398369</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.57982638886</v>
+        <v>738157.57982638886</v>
       </c>
       <c r="C40" s="0">
         <v>1194.9999958276749</v>
